--- a/configure/xlsx/router.xlsx
+++ b/configure/xlsx/router.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="网关路由表" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
     <t>E|节点类型-Db|NodeType|Db|4</t>
   </si>
   <si>
-    <t>E|节点类型-Builder|NodeType|Builder|5</t>
+    <t>E|节点类型-Build|NodeType|Build|5</t>
   </si>
   <si>
     <t>E|节点类型-Gm|NodeType|Gm|6</t>
@@ -383,12 +383,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -934,6 +934,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1192,7 +1199,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.375" style="1" customWidth="1"/>
@@ -1203,7 +1210,7 @@
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1231,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" ht="14.25" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1245,7 +1252,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" ht="14.25" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1328,10 +1335,10 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="41.5" customWidth="1"/>
   </cols>
@@ -1401,7 +1408,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="86" customWidth="1"/>
     <col min="2" max="2" width="38.125" customWidth="1"/>
